--- a/katse.xlsx
+++ b/katse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Users\Eva Maria\Documents\Ülikool\6. semester\Lõputöö\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{00DD2AD9-C7BC-4C72-BC30-8D886B5B63C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2FC8E3AC-5155-4D1E-83D4-8EDEB7BF4829}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{211F99EE-AB64-4B64-8FBC-9E81E072F2C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="94">
   <si>
     <t>Kuupäev</t>
   </si>
@@ -75,47 +75,245 @@
     <t>Tõnis Suurkaev</t>
   </si>
   <si>
-    <t>Kuidas</t>
-  </si>
-  <si>
-    <t>Sooritus enne</t>
-  </si>
-  <si>
-    <t>Heino Sass Hallik</t>
+    <t>07.04.2018</t>
+  </si>
+  <si>
+    <t>Ragnar Luga</t>
+  </si>
+  <si>
+    <t>Kommentaar</t>
+  </si>
+  <si>
+    <t>Muu</t>
+  </si>
+  <si>
+    <t>Ulf Anso</t>
+  </si>
+  <si>
+    <t>Muu-sooritus-vaatamine</t>
+  </si>
+  <si>
+    <t>EMV</t>
+  </si>
+  <si>
+    <t>EMV Postimees</t>
+  </si>
+  <si>
+    <t>EMV Sooritus</t>
+  </si>
+  <si>
+    <t>Järjekord</t>
+  </si>
+  <si>
+    <t>Muu-vaatamine-sooritus</t>
+  </si>
+  <si>
+    <t>Teab loogikat; üksinda ruumis</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>RL_Sooritus</t>
+  </si>
+  <si>
+    <t>RL_Vaatamine</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Vaatamise ajaks võtta ära hiir ja klaviatuur</t>
+  </si>
+  <si>
+    <t>Vaatamise ajal istuda ise kõrval, imiteerida reaalelu situatsiooni?</t>
+  </si>
+  <si>
+    <t>Selgitada, kuidas test käivitub, et ei pea ise brauserit avama, vaid lihtsalt ootama</t>
+  </si>
+  <si>
+    <t>Selgitada, kuidas test lõpetada: CTRL+F3, ja millal seda teha (kui laborite koondvaates)</t>
+  </si>
+  <si>
+    <t>EMV_vaatamine</t>
+  </si>
+  <si>
+    <t>RL Postimees</t>
+  </si>
+  <si>
+    <t>RL Youtube02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL Youtube </t>
+  </si>
+  <si>
+    <t>Sooritus-muu-vaatamine</t>
+  </si>
+  <si>
+    <t>Üksinda ruumis</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>UA Sooritus</t>
+  </si>
+  <si>
+    <t>UA Postimees</t>
+  </si>
+  <si>
+    <t>Hiir sakib</t>
+  </si>
+  <si>
+    <t>Tool sakib</t>
+  </si>
+  <si>
+    <t>UA YouTube</t>
+  </si>
+  <si>
+    <t>UA_Vaatamine</t>
+  </si>
+  <si>
+    <t>Teab loogikat; koos Evaga; proovis lugeda ja kursori liikudes üritas ennustada, aga alati ei õnnestunud, sest mõnikord kursor liikus teksti lugemise hõlbustamiseks; kaootiline lugemine, et tekitada muljet, et loeb mitu korda, võites aega hiirele - nii ei ole kahtlane, kui poole teksti pealt silmadega ära liigub</t>
+  </si>
+  <si>
+    <t>Enne vaatamine, siis sooritus - Ulf. Vaatamine oleks nagu juhendvideo, las kandidaat jätab selle järgi meelde.</t>
+  </si>
+  <si>
+    <t>Klaviatuuri keele vahetamine võõras arvutis</t>
+  </si>
+  <si>
+    <t>Tab-complete vs ise pikalt välja trükkimine vs hiirega kopeerimine-kleepimine</t>
+  </si>
+  <si>
+    <t>Vaatamine-sooritus-muu</t>
+  </si>
+  <si>
+    <t>TS Vaatamine</t>
+  </si>
+  <si>
+    <t>Üksinda ruumis; ei andnud väga infot, lihtsalt ütlesin, et vaata videot nagu tutorialit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Üksinda ruumis </t>
+  </si>
+  <si>
+    <t>TS Sooritus</t>
+  </si>
+  <si>
+    <t>Prillidega ei tööta; prillikandjatel raskem. Ka veebikaamerat häirivad prillid (peegeldus, mustus)</t>
+  </si>
+  <si>
+    <t>Vaatamine-muu-sooritus</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>AR Vaatamine</t>
+  </si>
+  <si>
+    <t>AR Sooritus</t>
+  </si>
+  <si>
+    <t>AR Postimees</t>
+  </si>
+  <si>
+    <t>AR sooritus 2</t>
+  </si>
+  <si>
+    <t>AR sooritus 3</t>
+  </si>
+  <si>
+    <t>Üksinda ruumis; lihtsalt vaatas, kus testihiir liigub, millest ülesanne on, kiikas kellaaega</t>
+  </si>
+  <si>
+    <t>Tahvelarvuti või spikker vahetult ekraani all, sest siis saab hiljem öelda, et vaatasid klaviatuuri - kui samal ajal ei trüki, on kahtlane, mis sellest klaviatuurist niisama ikka jõllitada</t>
+  </si>
+  <si>
+    <t>TS Postimees</t>
+  </si>
+  <si>
+    <t>TS Youtube</t>
   </si>
   <si>
     <t>10.04.2018</t>
   </si>
   <si>
-    <t>07.04.2018</t>
-  </si>
-  <si>
-    <t>Ragnar Luga</t>
-  </si>
-  <si>
-    <t>Rene Prähla</t>
-  </si>
-  <si>
-    <t>Arti Zirk</t>
-  </si>
-  <si>
-    <t>Kommentaar</t>
-  </si>
-  <si>
-    <t>Teab loogikat</t>
-  </si>
-  <si>
-    <t>Muu</t>
-  </si>
-  <si>
-    <t>Ulf Anso</t>
+    <t>EMV_vaatamine2</t>
+  </si>
+  <si>
+    <t>Windows 8 Pro</t>
+  </si>
+  <si>
+    <t>Intel® Xeon® CPU E5-1650 0 @ 3.20GHz   3.20GHz</t>
+  </si>
+  <si>
+    <t>System type: 64-bit operating system, x64-based processor</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>Dell Precision T3600</t>
+  </si>
+  <si>
+    <t>Mingi Dell display</t>
+  </si>
+  <si>
+    <t>Klaviatuur: Dell SK-3205</t>
+  </si>
+  <si>
+    <t>HP hiir hiljem</t>
+  </si>
+  <si>
+    <t>Vigane Logitechi hiir varem</t>
+  </si>
+  <si>
+    <t>Acme CA04 kaamera = user cam</t>
+  </si>
+  <si>
+    <t>Rating: 7.3 Windows Experience Index</t>
+  </si>
+  <si>
+    <t>Brightness: 75%</t>
+  </si>
+  <si>
+    <t>Contrast: 75</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>SK Postimees</t>
+  </si>
+  <si>
+    <t>SK Vaatamine</t>
+  </si>
+  <si>
+    <t>Kahekesi ruumis</t>
+  </si>
+  <si>
+    <t>16,0GB RAM</t>
+  </si>
+  <si>
+    <t>Sandra Krusel</t>
+  </si>
+  <si>
+    <t>11.04.2018</t>
+  </si>
+  <si>
+    <t>Muu-vaatamine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +325,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -179,6 +384,24 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E341FACD-9410-4F23-9FFB-747AECC83BE0}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,13 +730,13 @@
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -539,13 +762,16 @@
         <v>10</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -557,451 +783,993 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2">
         <v>21</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
         <v>21</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="12">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
         <v>21</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="2"/>
+      <c r="M7" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="F8" s="2">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="3">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>0.53125</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>0.8125</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="M15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="2">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.84097222222222223</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="F19" s="4">
+        <v>23</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="4">
+        <v>23</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="4">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4">
+        <v>23</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F24" s="4">
         <v>21</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="G24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.70763888888888893</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F25" s="4">
         <v>21</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="G25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="I25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="F26" s="4">
+        <v>21</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="4">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="4">
+        <v>21</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="3">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="I28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2">
+        <v>31</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2">
+        <v>31</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="M32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="M33" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A3:J5">
+    <sortCondition ref="B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
